--- a/data/pca/factorExposure/factorExposure_2017-11-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02300526028085898</v>
+        <v>-0.01480001457440626</v>
       </c>
       <c r="C2">
-        <v>0.000569972036678214</v>
+        <v>0.03777129258457051</v>
       </c>
       <c r="D2">
-        <v>0.008353841024582984</v>
+        <v>0.02828688454158248</v>
       </c>
       <c r="E2">
-        <v>0.01421664740987638</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02883700891521046</v>
+      </c>
+      <c r="F2">
+        <v>0.03234308264796092</v>
+      </c>
+      <c r="G2">
+        <v>0.01506321685303506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01159397910022383</v>
+        <v>-0.05433245247897166</v>
       </c>
       <c r="C3">
-        <v>-0.04779769906819153</v>
+        <v>0.07758931477537186</v>
       </c>
       <c r="D3">
-        <v>-0.02012701565699752</v>
+        <v>0.01429799169098885</v>
       </c>
       <c r="E3">
-        <v>-0.0285343940984117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.07955934693409161</v>
+      </c>
+      <c r="F3">
+        <v>0.06036728329554455</v>
+      </c>
+      <c r="G3">
+        <v>0.07161607196402102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02197384303496152</v>
+        <v>-0.05580999802741247</v>
       </c>
       <c r="C4">
-        <v>-0.03475814150449236</v>
+        <v>0.06377378372579741</v>
       </c>
       <c r="D4">
-        <v>0.04323950922021202</v>
+        <v>0.02210460871703611</v>
       </c>
       <c r="E4">
-        <v>0.01713408714527864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.000173539503023711</v>
+      </c>
+      <c r="F4">
+        <v>0.01475753932326911</v>
+      </c>
+      <c r="G4">
+        <v>0.0410684735595028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01486845485660354</v>
+        <v>-0.03251163380294884</v>
       </c>
       <c r="C6">
-        <v>-0.05362816493077731</v>
+        <v>0.05385103240806585</v>
       </c>
       <c r="D6">
-        <v>0.04312082508177178</v>
+        <v>0.01626535390927517</v>
       </c>
       <c r="E6">
-        <v>0.03605158108735115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.007109339256877827</v>
+      </c>
+      <c r="F6">
+        <v>0.01930944257021021</v>
+      </c>
+      <c r="G6">
+        <v>0.02406179029187399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01062713489333423</v>
+        <v>-0.01975126570881726</v>
       </c>
       <c r="C7">
-        <v>-0.02321592135398938</v>
+        <v>0.03713233417769431</v>
       </c>
       <c r="D7">
-        <v>0.05051041865792721</v>
+        <v>0.0124527272364169</v>
       </c>
       <c r="E7">
-        <v>-0.04867777516660127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01267524417957876</v>
+      </c>
+      <c r="F7">
+        <v>0.01031653604641282</v>
+      </c>
+      <c r="G7">
+        <v>0.07653216054496645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0005657164106971228</v>
+        <v>0.003097492632358716</v>
       </c>
       <c r="C8">
-        <v>0.01462901729889431</v>
+        <v>0.01443918139151391</v>
       </c>
       <c r="D8">
-        <v>0.02267264744275646</v>
+        <v>0.003935400623254345</v>
       </c>
       <c r="E8">
-        <v>0.008363811394568798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01786616812136833</v>
+      </c>
+      <c r="F8">
+        <v>0.02065735661629511</v>
+      </c>
+      <c r="G8">
+        <v>0.0273805227453617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01407509742436022</v>
+        <v>-0.02868636674793309</v>
       </c>
       <c r="C9">
-        <v>-0.02625762837327416</v>
+        <v>0.04293967015484147</v>
       </c>
       <c r="D9">
-        <v>0.02403889095595905</v>
+        <v>0.01544240240494076</v>
       </c>
       <c r="E9">
-        <v>0.008660155603759462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.005197435410945737</v>
+      </c>
+      <c r="F9">
+        <v>0.01841158108062543</v>
+      </c>
+      <c r="G9">
+        <v>0.03305190847389552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.006998817417249059</v>
+        <v>-0.08712756138916533</v>
       </c>
       <c r="C10">
-        <v>-0.08260139817003526</v>
+        <v>-0.1862132135448832</v>
       </c>
       <c r="D10">
-        <v>-0.1163679520560825</v>
+        <v>-0.01886546848373682</v>
       </c>
       <c r="E10">
-        <v>-0.1057520833811506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01913599597197279</v>
+      </c>
+      <c r="F10">
+        <v>-0.01624334966409798</v>
+      </c>
+      <c r="G10">
+        <v>0.03841281097477344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0001704199770940234</v>
+        <v>-0.03625385691802082</v>
       </c>
       <c r="C11">
-        <v>-0.01949759533933212</v>
+        <v>0.05232972812885848</v>
       </c>
       <c r="D11">
-        <v>0.01967115622951488</v>
+        <v>0.001313089396707025</v>
       </c>
       <c r="E11">
-        <v>0.02790301296688886</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.001375470929637887</v>
+      </c>
+      <c r="F11">
+        <v>0.02426537334770738</v>
+      </c>
+      <c r="G11">
+        <v>0.01447750662357732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005090725475242325</v>
+        <v>-0.0333970910601543</v>
       </c>
       <c r="C12">
-        <v>-0.02789898398288414</v>
+        <v>0.0445338296449246</v>
       </c>
       <c r="D12">
-        <v>0.02575200535108451</v>
+        <v>0.005494708860485318</v>
       </c>
       <c r="E12">
-        <v>0.02488662793189569</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.008316043108048227</v>
+      </c>
+      <c r="F12">
+        <v>0.006819841921284797</v>
+      </c>
+      <c r="G12">
+        <v>0.01841407813135398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02085824865217253</v>
+        <v>-0.012270173607284</v>
       </c>
       <c r="C13">
-        <v>-0.01087435200246738</v>
+        <v>0.03349503450687737</v>
       </c>
       <c r="D13">
-        <v>0.003685712554226334</v>
+        <v>0.02466694899295857</v>
       </c>
       <c r="E13">
-        <v>0.007229723118244114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.0245333360026488</v>
+      </c>
+      <c r="F13">
+        <v>0.02333450233482549</v>
+      </c>
+      <c r="G13">
+        <v>0.02968949854420575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006749626871877642</v>
+        <v>-0.00719306093622163</v>
       </c>
       <c r="C14">
-        <v>-0.01431589718162384</v>
+        <v>0.0254776449157835</v>
       </c>
       <c r="D14">
-        <v>0.01474779103547187</v>
+        <v>0.008493067203421259</v>
       </c>
       <c r="E14">
-        <v>-0.006721664825495644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.004041949613054185</v>
+      </c>
+      <c r="F14">
+        <v>0.003159199752810967</v>
+      </c>
+      <c r="G14">
+        <v>0.03736732024353225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0001448857174406403</v>
+        <v>-0.03252071446827193</v>
       </c>
       <c r="C16">
-        <v>-0.02382867161936899</v>
+        <v>0.04261950094867638</v>
       </c>
       <c r="D16">
-        <v>0.02821722867743161</v>
+        <v>0.0009444601577568367</v>
       </c>
       <c r="E16">
-        <v>0.02724063136378569</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0008016131477129592</v>
+      </c>
+      <c r="F16">
+        <v>0.01058435283088519</v>
+      </c>
+      <c r="G16">
+        <v>0.01767687858291278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01142848379976453</v>
+        <v>-0.02971760657852713</v>
       </c>
       <c r="C19">
-        <v>-0.01932236974689553</v>
+        <v>0.05486088086569469</v>
       </c>
       <c r="D19">
-        <v>0.02301213886329031</v>
+        <v>0.01537416872403049</v>
       </c>
       <c r="E19">
-        <v>0.01833164443465903</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.03996801593164923</v>
+      </c>
+      <c r="F19">
+        <v>0.03675559215688731</v>
+      </c>
+      <c r="G19">
+        <v>0.03618814069610189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.009626959332083695</v>
+        <v>-0.01132011760072329</v>
       </c>
       <c r="C20">
-        <v>-0.001956104105162577</v>
+        <v>0.03455017098319037</v>
       </c>
       <c r="D20">
-        <v>0.003416309336190472</v>
+        <v>0.01307250999297341</v>
       </c>
       <c r="E20">
-        <v>-0.00323664031652612</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02225207884171812</v>
+      </c>
+      <c r="F20">
+        <v>0.00596280639297948</v>
+      </c>
+      <c r="G20">
+        <v>0.02981029567820348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01336438119894314</v>
+        <v>-0.01266137838679229</v>
       </c>
       <c r="C21">
-        <v>-0.03106015452748609</v>
+        <v>0.03322664251460309</v>
       </c>
       <c r="D21">
-        <v>0.02061131250671005</v>
+        <v>0.01607255041227635</v>
       </c>
       <c r="E21">
-        <v>-0.008989244215813701</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.02981464216837262</v>
+      </c>
+      <c r="F21">
+        <v>0.02082044635421103</v>
+      </c>
+      <c r="G21">
+        <v>0.05246746637165904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004397147608890297</v>
+        <v>-0.02716051078568908</v>
       </c>
       <c r="C24">
-        <v>-0.02071991671756435</v>
+        <v>0.04570090616990297</v>
       </c>
       <c r="D24">
-        <v>0.02378078167116788</v>
+        <v>0.006303790704880977</v>
       </c>
       <c r="E24">
-        <v>0.02423259267092679</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005073777262865948</v>
+      </c>
+      <c r="F24">
+        <v>0.02011051407112393</v>
+      </c>
+      <c r="G24">
+        <v>0.01751691721159668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01060641341769054</v>
+        <v>-0.04410659874399734</v>
       </c>
       <c r="C25">
-        <v>-0.03408412013031555</v>
+        <v>0.05255526902962909</v>
       </c>
       <c r="D25">
-        <v>0.0226965995580007</v>
+        <v>0.01016795177665237</v>
       </c>
       <c r="E25">
-        <v>0.02562747596865359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01245254156148484</v>
+      </c>
+      <c r="F25">
+        <v>0.01479396105365102</v>
+      </c>
+      <c r="G25">
+        <v>0.02321256130728344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02259482129304531</v>
+        <v>-0.008346681272401492</v>
       </c>
       <c r="C26">
-        <v>-0.0007923917375758645</v>
+        <v>0.008238476491038101</v>
       </c>
       <c r="D26">
-        <v>0.002226363507680788</v>
+        <v>0.02367180866476433</v>
       </c>
       <c r="E26">
-        <v>-0.009625663504001495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.008668579318645257</v>
+      </c>
+      <c r="F26">
+        <v>0.005985228522786097</v>
+      </c>
+      <c r="G26">
+        <v>0.02625039066405898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02261118994062113</v>
+        <v>-0.1099527066650249</v>
       </c>
       <c r="C28">
-        <v>-0.125012561123914</v>
+        <v>-0.2290254519185392</v>
       </c>
       <c r="D28">
-        <v>-0.1788215782562549</v>
+        <v>-0.0102421254644794</v>
       </c>
       <c r="E28">
-        <v>-0.1670995879495448</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.007841582782163792</v>
+      </c>
+      <c r="F28">
+        <v>-0.008439851514851026</v>
+      </c>
+      <c r="G28">
+        <v>0.05486293747576665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006634257498119488</v>
+        <v>-0.01245966492785509</v>
       </c>
       <c r="C29">
-        <v>-0.01554372530541928</v>
+        <v>0.01886363790983713</v>
       </c>
       <c r="D29">
-        <v>0.01065430650968152</v>
+        <v>0.007201389009154794</v>
       </c>
       <c r="E29">
-        <v>-0.004941042134847023</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.001705796157320427</v>
+      </c>
+      <c r="F29">
+        <v>-0.00597500437633742</v>
+      </c>
+      <c r="G29">
+        <v>0.0314914666160115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02362248093882512</v>
+        <v>-0.04081709243111901</v>
       </c>
       <c r="C30">
-        <v>-0.03263086712319847</v>
+        <v>0.06992325490717392</v>
       </c>
       <c r="D30">
-        <v>0.00454421708476014</v>
+        <v>0.02686577805517913</v>
       </c>
       <c r="E30">
-        <v>0.07906778679707778</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02141777332242311</v>
+      </c>
+      <c r="F30">
+        <v>0.04580811899537096</v>
+      </c>
+      <c r="G30">
+        <v>-0.003926451466720802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.005830742641485621</v>
+        <v>-0.04406643539605613</v>
       </c>
       <c r="C31">
-        <v>-0.04889587574259321</v>
+        <v>0.03059448151532255</v>
       </c>
       <c r="D31">
-        <v>0.0214640326679335</v>
+        <v>0.003082918939245153</v>
       </c>
       <c r="E31">
-        <v>0.005913021347932317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01013243156342788</v>
+      </c>
+      <c r="F31">
+        <v>-0.03729775691280932</v>
+      </c>
+      <c r="G31">
+        <v>0.02816250927999613</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007955131033611781</v>
+        <v>-0.004704147690985211</v>
       </c>
       <c r="C32">
-        <v>-0.0009679787663590477</v>
+        <v>0.0338286314405559</v>
       </c>
       <c r="D32">
-        <v>0.03394875065439666</v>
+        <v>-0.004617255195757975</v>
       </c>
       <c r="E32">
-        <v>-0.007313057204942506</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01529292304913281</v>
+      </c>
+      <c r="F32">
+        <v>0.07654931896755379</v>
+      </c>
+      <c r="G32">
+        <v>0.05290131254116981</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01140033897406984</v>
+        <v>-0.03051387570027107</v>
       </c>
       <c r="C33">
-        <v>-0.02463537110308934</v>
+        <v>0.04959641835644837</v>
       </c>
       <c r="D33">
-        <v>0.00135302229038286</v>
+        <v>0.01388029268202553</v>
       </c>
       <c r="E33">
-        <v>0.03202372402351131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02028574428581763</v>
+      </c>
+      <c r="F33">
+        <v>0.0254908153087034</v>
+      </c>
+      <c r="G33">
+        <v>0.0244719837760594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005749037494384477</v>
+        <v>-0.04619498325681992</v>
       </c>
       <c r="C34">
-        <v>-0.02937984434808765</v>
+        <v>0.05362819724897795</v>
       </c>
       <c r="D34">
-        <v>0.03313379310028139</v>
+        <v>-0.005823853896134283</v>
       </c>
       <c r="E34">
-        <v>0.0210647530666177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0114410393883576</v>
+      </c>
+      <c r="F34">
+        <v>0.02247327829358043</v>
+      </c>
+      <c r="G34">
+        <v>0.0278092683664599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01127755078390114</v>
+        <v>-0.01151970299884536</v>
       </c>
       <c r="C36">
-        <v>-0.01204397947892543</v>
+        <v>0.006078841904112429</v>
       </c>
       <c r="D36">
-        <v>0.0009511530674969618</v>
+        <v>0.01105499956336693</v>
       </c>
       <c r="E36">
-        <v>-0.003591189376712014</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0004836649878696445</v>
+      </c>
+      <c r="F36">
+        <v>-0.0007163554303220872</v>
+      </c>
+      <c r="G36">
+        <v>0.0193954076411133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006511895599394813</v>
+        <v>-0.03510795003249062</v>
       </c>
       <c r="C38">
-        <v>-0.02932909739872776</v>
+        <v>0.02451708070162489</v>
       </c>
       <c r="D38">
-        <v>0.01239127045052704</v>
+        <v>-0.008169760246859325</v>
       </c>
       <c r="E38">
-        <v>0.01580666179693361</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003773157500652203</v>
+      </c>
+      <c r="F38">
+        <v>0.001894778959520879</v>
+      </c>
+      <c r="G38">
+        <v>0.02861797634770083</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005363696717341091</v>
+        <v>-0.03308687761079682</v>
       </c>
       <c r="C39">
-        <v>-0.01744036217094376</v>
+        <v>0.08206965235147633</v>
       </c>
       <c r="D39">
-        <v>0.05086831219977232</v>
+        <v>0.01164136954907815</v>
       </c>
       <c r="E39">
-        <v>0.04400666833605388</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01201769805522168</v>
+      </c>
+      <c r="F39">
+        <v>0.03958997472398584</v>
+      </c>
+      <c r="G39">
+        <v>0.01965917721691598</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01026611536376678</v>
+        <v>-0.02052705923538331</v>
       </c>
       <c r="C40">
-        <v>-0.02401076379415558</v>
+        <v>0.03031742921786963</v>
       </c>
       <c r="D40">
-        <v>0.02368887218749303</v>
+        <v>0.01282659508669554</v>
       </c>
       <c r="E40">
-        <v>0.03150969145375263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01646535657038189</v>
+      </c>
+      <c r="F40">
+        <v>0.02135619086263527</v>
+      </c>
+      <c r="G40">
+        <v>0.02099263323921174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004725597187747759</v>
+        <v>-0.01207092222423815</v>
       </c>
       <c r="C41">
-        <v>-0.01472964204277961</v>
+        <v>-0.002083878789872747</v>
       </c>
       <c r="D41">
-        <v>-0.00769753923850563</v>
+        <v>0.003419672349234464</v>
       </c>
       <c r="E41">
-        <v>-0.006390318894489359</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.00305908357503631</v>
+      </c>
+      <c r="F41">
+        <v>0.000645885512922292</v>
+      </c>
+      <c r="G41">
+        <v>0.01356383990995645</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08582309914522047</v>
+        <v>-0.03250213624214899</v>
       </c>
       <c r="C42">
-        <v>-0.06037130046812038</v>
+        <v>0.05467417140178349</v>
       </c>
       <c r="D42">
-        <v>0.03644394926994899</v>
+        <v>0.1015233094632823</v>
       </c>
       <c r="E42">
-        <v>0.247042969487784</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.05779481888746892</v>
+      </c>
+      <c r="F42">
+        <v>-0.1085586656390308</v>
+      </c>
+      <c r="G42">
+        <v>-0.19800039328028</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005547129340005766</v>
+        <v>-0.02926939914348637</v>
       </c>
       <c r="C43">
-        <v>-0.01329930513046854</v>
+        <v>0.006661835641765027</v>
       </c>
       <c r="D43">
-        <v>-0.009613682985581441</v>
+        <v>0.003579611566714808</v>
       </c>
       <c r="E43">
-        <v>-0.005735852743755755</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.002530359430575087</v>
+      </c>
+      <c r="F43">
+        <v>-0.0009744190195514742</v>
+      </c>
+      <c r="G43">
+        <v>0.01854105600959677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002398218937306545</v>
+        <v>-0.0165111325547563</v>
       </c>
       <c r="C44">
-        <v>-0.0008759232623152544</v>
+        <v>0.04650598693869272</v>
       </c>
       <c r="D44">
-        <v>0.01567627128209938</v>
+        <v>0.006439074840743788</v>
       </c>
       <c r="E44">
-        <v>-0.001449840628634743</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01885464017571108</v>
+      </c>
+      <c r="F44">
+        <v>0.02639572580752608</v>
+      </c>
+      <c r="G44">
+        <v>0.03488413897006793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.009606348790674752</v>
+        <v>-0.002911076444319578</v>
       </c>
       <c r="C46">
-        <v>-0.009925073305103305</v>
+        <v>0.01675366106198409</v>
       </c>
       <c r="D46">
-        <v>0.01477423717910658</v>
+        <v>0.01159871156371307</v>
       </c>
       <c r="E46">
-        <v>0.00951850358525207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0008960416029182626</v>
+      </c>
+      <c r="F46">
+        <v>-0.009952648200447885</v>
+      </c>
+      <c r="G46">
+        <v>0.0252821620997591</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>8.200720267872053e-05</v>
+        <v>-0.07600224146242764</v>
       </c>
       <c r="C47">
-        <v>-0.07363916232037349</v>
+        <v>0.06221988511771347</v>
       </c>
       <c r="D47">
-        <v>0.02069320194424618</v>
+        <v>-0.005274688393686209</v>
       </c>
       <c r="E47">
-        <v>0.0269172079976981</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01256596321959257</v>
+      </c>
+      <c r="F47">
+        <v>-0.06278734724062625</v>
+      </c>
+      <c r="G47">
+        <v>0.02263424304070858</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002315219522799508</v>
+        <v>-0.01922196070343032</v>
       </c>
       <c r="C48">
-        <v>-0.02484122871674101</v>
+        <v>0.0100162371382002</v>
       </c>
       <c r="D48">
-        <v>0.004459892125833175</v>
+        <v>0.000879615159406408</v>
       </c>
       <c r="E48">
-        <v>0.0005566283527272552</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002398477058038813</v>
+      </c>
+      <c r="F48">
+        <v>-0.01419487238586852</v>
+      </c>
+      <c r="G48">
+        <v>0.02547352291601286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0008323577086712683</v>
+        <v>-0.08059790328705146</v>
       </c>
       <c r="C50">
-        <v>-0.06608337070887185</v>
+        <v>0.06379074423497917</v>
       </c>
       <c r="D50">
-        <v>0.04083594015978996</v>
+        <v>-0.004413053078579361</v>
       </c>
       <c r="E50">
-        <v>0.009385147942079446</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01447693827239211</v>
+      </c>
+      <c r="F50">
+        <v>-0.0588061108559592</v>
+      </c>
+      <c r="G50">
+        <v>0.04337755323943251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006048103984451553</v>
+        <v>-0.01301001193126505</v>
       </c>
       <c r="C51">
-        <v>-0.0005570466466113242</v>
+        <v>0.02612243698407648</v>
       </c>
       <c r="D51">
-        <v>-0.002630223541462838</v>
+        <v>0.008613738384999363</v>
       </c>
       <c r="E51">
-        <v>-0.02279123143494156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.005031288439855072</v>
+      </c>
+      <c r="F51">
+        <v>0.0305912235043251</v>
+      </c>
+      <c r="G51">
+        <v>0.04649220613772669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.001931096928896404</v>
+        <v>-0.0970229653086946</v>
       </c>
       <c r="C53">
-        <v>-0.1035760695238461</v>
+        <v>0.07496583117511833</v>
       </c>
       <c r="D53">
-        <v>0.05898659878828941</v>
+        <v>-0.005910860936316843</v>
       </c>
       <c r="E53">
-        <v>0.04686157464976912</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03852536879617208</v>
+      </c>
+      <c r="F53">
+        <v>-0.06636135213187196</v>
+      </c>
+      <c r="G53">
+        <v>0.02597764920214049</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.00248485256816568</v>
+        <v>-0.02910091751842113</v>
       </c>
       <c r="C54">
-        <v>-0.02351372662048607</v>
+        <v>0.004116279105938292</v>
       </c>
       <c r="D54">
-        <v>-0.002610025497713453</v>
+        <v>-0.004185309495709677</v>
       </c>
       <c r="E54">
-        <v>-0.01376640530441786</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.003512404797375946</v>
+      </c>
+      <c r="F54">
+        <v>-0.00159545853573943</v>
+      </c>
+      <c r="G54">
+        <v>0.03077793768565562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-6.183421135411336e-05</v>
+        <v>-0.07384754731091153</v>
       </c>
       <c r="C55">
-        <v>-0.08019688391526816</v>
+        <v>0.07068391949782639</v>
       </c>
       <c r="D55">
-        <v>0.05127407930008542</v>
+        <v>-0.004802229876917515</v>
       </c>
       <c r="E55">
-        <v>0.05370454306405212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02625912617943674</v>
+      </c>
+      <c r="F55">
+        <v>-0.06290357946558538</v>
+      </c>
+      <c r="G55">
+        <v>0.01197317537328465</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0006031607572662222</v>
+        <v>-0.1491596364901302</v>
       </c>
       <c r="C56">
-        <v>-0.1496549501875324</v>
+        <v>0.09784637216215604</v>
       </c>
       <c r="D56">
-        <v>0.06579698149324485</v>
+        <v>-0.0146183458403557</v>
       </c>
       <c r="E56">
-        <v>0.07310767281670263</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04314427537167014</v>
+      </c>
+      <c r="F56">
+        <v>-0.1029318737025297</v>
+      </c>
+      <c r="G56">
+        <v>0.00230318267244211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02329941568941681</v>
+        <v>-0.01276538076873155</v>
       </c>
       <c r="C57">
-        <v>-0.03714208558748615</v>
+        <v>0.01158361378733895</v>
       </c>
       <c r="D57">
-        <v>0.01347266796006733</v>
+        <v>0.0235817936243762</v>
       </c>
       <c r="E57">
-        <v>0.0217452543435376</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02712264479727782</v>
+      </c>
+      <c r="F57">
+        <v>0.01597738139583971</v>
+      </c>
+      <c r="G57">
+        <v>0.02189342770270274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01015589932539858</v>
+        <v>-0.0764432187594463</v>
       </c>
       <c r="C58">
-        <v>-0.09922634841611586</v>
+        <v>0.06794246463174063</v>
       </c>
       <c r="D58">
-        <v>-0.08350431061856739</v>
+        <v>0.01930606107882452</v>
       </c>
       <c r="E58">
-        <v>0.115617165604971</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9445766584091853</v>
+      </c>
+      <c r="F58">
+        <v>-0.2280324931524663</v>
+      </c>
+      <c r="G58">
+        <v>0.05575236666903965</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.0184470019601826</v>
+        <v>-0.146974428046279</v>
       </c>
       <c r="C59">
-        <v>-0.1224357066584614</v>
+        <v>-0.2174603015770679</v>
       </c>
       <c r="D59">
-        <v>-0.1828569796768916</v>
+        <v>-0.01704411530077465</v>
       </c>
       <c r="E59">
-        <v>-0.1315377249785948</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01445796646756011</v>
+      </c>
+      <c r="F59">
+        <v>0.009518301297758647</v>
+      </c>
+      <c r="G59">
+        <v>0.01788677356919297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02711782266754975</v>
+        <v>-0.2950306140559872</v>
       </c>
       <c r="C60">
-        <v>-0.1998091203000058</v>
+        <v>0.07832941390704116</v>
       </c>
       <c r="D60">
-        <v>-0.03279119186858274</v>
+        <v>0.007380829142978774</v>
       </c>
       <c r="E60">
-        <v>0.04673264108445755</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01745935046419286</v>
+      </c>
+      <c r="F60">
+        <v>0.3867906045770606</v>
+      </c>
+      <c r="G60">
+        <v>-0.07396056160543121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002673693505719558</v>
+        <v>-0.03379330062463445</v>
       </c>
       <c r="C61">
-        <v>-0.02880712738467072</v>
+        <v>0.06231942395146714</v>
       </c>
       <c r="D61">
-        <v>0.03682598571107614</v>
+        <v>0.004953726122420492</v>
       </c>
       <c r="E61">
-        <v>0.03958759649336581</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.007604713047636396</v>
+      </c>
+      <c r="F61">
+        <v>0.02448905103490798</v>
+      </c>
+      <c r="G61">
+        <v>0.02076162606060996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007266369995466887</v>
+        <v>-0.01575398646100751</v>
       </c>
       <c r="C63">
-        <v>-0.01353815175972879</v>
+        <v>0.02540779376735713</v>
       </c>
       <c r="D63">
-        <v>0.0141799387797884</v>
+        <v>0.007625519174836041</v>
       </c>
       <c r="E63">
-        <v>0.006482122371408502</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.01109645293664369</v>
+      </c>
+      <c r="F63">
+        <v>-0.01197679658010188</v>
+      </c>
+      <c r="G63">
+        <v>0.03045475817990618</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.005371375707669842</v>
+        <v>-0.04725624584321281</v>
       </c>
       <c r="C64">
-        <v>-0.04369077076432524</v>
+        <v>0.03483228245638915</v>
       </c>
       <c r="D64">
-        <v>0.02928041549392525</v>
+        <v>0.004541717436439539</v>
       </c>
       <c r="E64">
-        <v>0.03282416748455121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.009165979737579358</v>
+      </c>
+      <c r="F64">
+        <v>0.01271753274752775</v>
+      </c>
+      <c r="G64">
+        <v>0.01878791017473502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01708927326231442</v>
+        <v>-0.08152411426100421</v>
       </c>
       <c r="C65">
-        <v>-0.06523755274401052</v>
+        <v>0.0659297088219804</v>
       </c>
       <c r="D65">
-        <v>0.04722603649851184</v>
+        <v>0.01517029976072881</v>
       </c>
       <c r="E65">
-        <v>0.04228613950553051</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.004418801535995495</v>
+      </c>
+      <c r="F65">
+        <v>0.04172765963545357</v>
+      </c>
+      <c r="G65">
+        <v>0.01004983055940198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004995679494428337</v>
+        <v>-0.0547805054936581</v>
       </c>
       <c r="C66">
-        <v>-0.03695574788455458</v>
+        <v>0.1141959212993889</v>
       </c>
       <c r="D66">
-        <v>0.05167977121742955</v>
+        <v>0.01095767437819439</v>
       </c>
       <c r="E66">
-        <v>0.06965780113933616</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.01516378460409692</v>
+      </c>
+      <c r="F66">
+        <v>0.04838476205079822</v>
+      </c>
+      <c r="G66">
+        <v>0.01117925187903502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001909473061106038</v>
+        <v>-0.05866535695808187</v>
       </c>
       <c r="C67">
-        <v>-0.04586525916084939</v>
+        <v>0.02760638431599331</v>
       </c>
       <c r="D67">
-        <v>0.008067908979941517</v>
+        <v>-0.006728132950040433</v>
       </c>
       <c r="E67">
-        <v>0.01618798610436869</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004023216955487767</v>
+      </c>
+      <c r="F67">
+        <v>-0.0005671395019100028</v>
+      </c>
+      <c r="G67">
+        <v>0.02928996029392613</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03616526697832506</v>
+        <v>-0.1280870657872433</v>
       </c>
       <c r="C68">
-        <v>-0.1084056644669238</v>
+        <v>-0.2732142638809146</v>
       </c>
       <c r="D68">
-        <v>-0.18277179338983</v>
+        <v>0.001094092223987225</v>
       </c>
       <c r="E68">
-        <v>-0.1442375250243668</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.0183466337265906</v>
+      </c>
+      <c r="F68">
+        <v>-0.01463037715138458</v>
+      </c>
+      <c r="G68">
+        <v>0.01995269052899385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.00405669313515483</v>
+        <v>-0.07821438794135013</v>
       </c>
       <c r="C69">
-        <v>-0.05940266037757732</v>
+        <v>0.06178222611756086</v>
       </c>
       <c r="D69">
-        <v>0.02224627249143039</v>
+        <v>-0.009479506217307431</v>
       </c>
       <c r="E69">
-        <v>0.02562440483852573</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.03067223971742482</v>
+      </c>
+      <c r="F69">
+        <v>-0.04158204274687476</v>
+      </c>
+      <c r="G69">
+        <v>0.01845688445198899</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.025049648641837</v>
+        <v>-0.1255691761429344</v>
       </c>
       <c r="C71">
-        <v>-0.1027963609642506</v>
+        <v>-0.2303472404751113</v>
       </c>
       <c r="D71">
-        <v>-0.1568014895962902</v>
+        <v>-0.007698011135208167</v>
       </c>
       <c r="E71">
-        <v>-0.1391291164402543</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02438154509754542</v>
+      </c>
+      <c r="F71">
+        <v>-0.01871830472099053</v>
+      </c>
+      <c r="G71">
+        <v>0.03662834731137393</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002955283362601285</v>
+        <v>-0.08589729250608254</v>
       </c>
       <c r="C72">
-        <v>-0.1159675212526166</v>
+        <v>0.07620197776834801</v>
       </c>
       <c r="D72">
-        <v>0.06083546406249044</v>
+        <v>-0.008952602253644354</v>
       </c>
       <c r="E72">
-        <v>0.09335223387557888</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01084908874257269</v>
+      </c>
+      <c r="F72">
+        <v>0.03726395007634046</v>
+      </c>
+      <c r="G72">
+        <v>-0.002322221938135582</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.03945507665882463</v>
+        <v>-0.4051146007015045</v>
       </c>
       <c r="C73">
-        <v>-0.2499778772790945</v>
+        <v>0.09435827608569677</v>
       </c>
       <c r="D73">
-        <v>-0.0315415907538365</v>
+        <v>0.01184016286840392</v>
       </c>
       <c r="E73">
-        <v>0.132254616562572</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06478917861793328</v>
+      </c>
+      <c r="F73">
+        <v>0.53560403610883</v>
+      </c>
+      <c r="G73">
+        <v>-0.1290239411033122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001711179398149775</v>
+        <v>-0.117836033497484</v>
       </c>
       <c r="C74">
-        <v>-0.1388732301100747</v>
+        <v>0.1142928715761674</v>
       </c>
       <c r="D74">
-        <v>0.05504556867709948</v>
+        <v>-0.01078757630584458</v>
       </c>
       <c r="E74">
-        <v>0.07442091749281271</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03704630617672107</v>
+      </c>
+      <c r="F74">
+        <v>-0.07153928174923278</v>
+      </c>
+      <c r="G74">
+        <v>0.02107738440647277</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.00308368429834963</v>
+        <v>-0.2642668660587651</v>
       </c>
       <c r="C75">
-        <v>-0.2860822950528346</v>
+        <v>0.1416548020258631</v>
       </c>
       <c r="D75">
-        <v>0.09523678129756438</v>
+        <v>-0.0321284430140114</v>
       </c>
       <c r="E75">
-        <v>0.1390705063211293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.07642004884022838</v>
+      </c>
+      <c r="F75">
+        <v>-0.2163549227941491</v>
+      </c>
+      <c r="G75">
+        <v>-0.02411194305607318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.00643793077135354</v>
+        <v>-0.1400416269943154</v>
       </c>
       <c r="C76">
-        <v>-0.2413926828677505</v>
+        <v>0.1194161785586666</v>
       </c>
       <c r="D76">
-        <v>0.1077091931675012</v>
+        <v>-0.02211456888708808</v>
       </c>
       <c r="E76">
-        <v>0.1163890949838341</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.06716394402701244</v>
+      </c>
+      <c r="F76">
+        <v>-0.1368439303028182</v>
+      </c>
+      <c r="G76">
+        <v>0.01010743196087912</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0118265534198356</v>
+        <v>-0.06260766175974943</v>
       </c>
       <c r="C77">
-        <v>-0.03567608795724431</v>
+        <v>0.06001296642765361</v>
       </c>
       <c r="D77">
-        <v>0.03718925049445122</v>
+        <v>0.01197198173662786</v>
       </c>
       <c r="E77">
-        <v>0.0373164246800533</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04110139555217617</v>
+      </c>
+      <c r="F77">
+        <v>0.02021715714254811</v>
+      </c>
+      <c r="G77">
+        <v>0.04445128012283806</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003601367016181552</v>
+        <v>-0.04114568235286435</v>
       </c>
       <c r="C78">
-        <v>-0.03315553801369261</v>
+        <v>0.05020992664967925</v>
       </c>
       <c r="D78">
-        <v>0.03165232520397051</v>
+        <v>0.005336634172023591</v>
       </c>
       <c r="E78">
-        <v>0.02636501716408129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01762132726948325</v>
+      </c>
+      <c r="F78">
+        <v>0.0419007109917597</v>
+      </c>
+      <c r="G78">
+        <v>0.03183974913850265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0158345179482582</v>
+        <v>-0.05897563949717775</v>
       </c>
       <c r="C80">
-        <v>-0.2159638522303933</v>
+        <v>0.07101424566068583</v>
       </c>
       <c r="D80">
-        <v>0.6483143714069938</v>
+        <v>0.01368532908737006</v>
       </c>
       <c r="E80">
-        <v>-0.6841223249125322</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.07044096732520534</v>
+      </c>
+      <c r="F80">
+        <v>0.04152444528467809</v>
+      </c>
+      <c r="G80">
+        <v>0.9167315741686224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0009014915753338681</v>
+        <v>-0.1480935751628114</v>
       </c>
       <c r="C81">
-        <v>-0.1921421428466377</v>
+        <v>0.09239870324152387</v>
       </c>
       <c r="D81">
-        <v>0.06888848446102466</v>
+        <v>-0.01665132090862032</v>
       </c>
       <c r="E81">
-        <v>0.08283667376768737</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04741134322698379</v>
+      </c>
+      <c r="F81">
+        <v>-0.1404026568734971</v>
+      </c>
+      <c r="G81">
+        <v>0.01299296711748375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05234235590009826</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03197739935309957</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002915469972920285</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01407978423659982</v>
+      </c>
+      <c r="F82">
+        <v>-0.003575470325479719</v>
+      </c>
+      <c r="G82">
+        <v>-0.005555107101463996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.00636788452673222</v>
+        <v>-0.02875505650522597</v>
       </c>
       <c r="C83">
-        <v>-0.03283191059105873</v>
+        <v>0.01886070126610884</v>
       </c>
       <c r="D83">
-        <v>0.001725763976624928</v>
+        <v>0.005167055923094176</v>
       </c>
       <c r="E83">
-        <v>0.007211940990584169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02671561843089841</v>
+      </c>
+      <c r="F83">
+        <v>0.02308022214758322</v>
+      </c>
+      <c r="G83">
+        <v>0.02723344634232228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.005844326432346084</v>
+        <v>-0.2406818496927245</v>
       </c>
       <c r="C85">
-        <v>-0.2454923466843728</v>
+        <v>0.1463930426695089</v>
       </c>
       <c r="D85">
-        <v>0.1036411427589322</v>
+        <v>-0.02079442794537567</v>
       </c>
       <c r="E85">
-        <v>0.157049730460584</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1206381106876478</v>
+      </c>
+      <c r="F85">
+        <v>-0.203771984750686</v>
+      </c>
+      <c r="G85">
+        <v>-0.04843062126174238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.004921316861840599</v>
+        <v>-0.0101982396069883</v>
       </c>
       <c r="C86">
-        <v>0.001701009772293298</v>
+        <v>0.02371293792089896</v>
       </c>
       <c r="D86">
-        <v>0.008554438492059332</v>
+        <v>0.009572520340110911</v>
       </c>
       <c r="E86">
-        <v>0.0006388196374362595</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02468000974789425</v>
+      </c>
+      <c r="F86">
+        <v>0.0200136579800021</v>
+      </c>
+      <c r="G86">
+        <v>0.05633036297685622</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006207395918250935</v>
+        <v>-0.01549220866443033</v>
       </c>
       <c r="C87">
-        <v>-0.0144445300260624</v>
+        <v>0.02715022676162513</v>
       </c>
       <c r="D87">
-        <v>0.01996945758180552</v>
+        <v>0.01133902080603763</v>
       </c>
       <c r="E87">
-        <v>0.01760895234344519</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.07746898040052823</v>
+      </c>
+      <c r="F87">
+        <v>0.05977892902722989</v>
+      </c>
+      <c r="G87">
+        <v>0.03987916716166878</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02539958407192692</v>
+        <v>-0.09154710720608807</v>
       </c>
       <c r="C88">
-        <v>-0.04700947637999514</v>
+        <v>0.05374059663954996</v>
       </c>
       <c r="D88">
-        <v>-7.420640064766991e-05</v>
+        <v>0.02083657652263856</v>
       </c>
       <c r="E88">
-        <v>0.0105773629721224</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.00647269426294369</v>
+      </c>
+      <c r="F88">
+        <v>-0.0006481708656683011</v>
+      </c>
+      <c r="G88">
+        <v>0.02113667846001375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.0477243541752795</v>
+        <v>-0.2126676837673998</v>
       </c>
       <c r="C89">
-        <v>-0.2142191945620436</v>
+        <v>-0.3731191438359055</v>
       </c>
       <c r="D89">
-        <v>-0.3207674317094026</v>
+        <v>-0.009252584063392915</v>
       </c>
       <c r="E89">
-        <v>-0.2309774937125907</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01617466019032156</v>
+      </c>
+      <c r="F89">
+        <v>-0.03441664160770236</v>
+      </c>
+      <c r="G89">
+        <v>0.02873514620033298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03526474287533508</v>
+        <v>-0.1792338115934869</v>
       </c>
       <c r="C90">
-        <v>-0.1282705452604845</v>
+        <v>-0.3390871177201544</v>
       </c>
       <c r="D90">
-        <v>-0.2616168313329243</v>
+        <v>-0.0120554068144054</v>
       </c>
       <c r="E90">
-        <v>-0.1868072764163597</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.003443449823192739</v>
+      </c>
+      <c r="F90">
+        <v>-0.04670508349972612</v>
+      </c>
+      <c r="G90">
+        <v>0.005283769368990003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.0023864761186321</v>
+        <v>-0.2127907570330955</v>
       </c>
       <c r="C91">
-        <v>-0.271245965546018</v>
+        <v>0.1324826116116583</v>
       </c>
       <c r="D91">
-        <v>0.1066002416070448</v>
+        <v>-0.02527709150162798</v>
       </c>
       <c r="E91">
-        <v>0.1555273660502777</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.0849167920617626</v>
+      </c>
+      <c r="F91">
+        <v>-0.192350045663309</v>
+      </c>
+      <c r="G91">
+        <v>-0.006290435249299063</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.001005760381989729</v>
+        <v>-0.2024975437204564</v>
       </c>
       <c r="C92">
-        <v>-0.2759010376251458</v>
+        <v>-0.2742187800704075</v>
       </c>
       <c r="D92">
-        <v>-0.2438327467718986</v>
+        <v>-0.05496217492901078</v>
       </c>
       <c r="E92">
-        <v>-0.1641260390168412</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.009308411667282438</v>
+      </c>
+      <c r="F92">
+        <v>-0.1349162936349534</v>
+      </c>
+      <c r="G92">
+        <v>0.0607718608014918</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03430926737101236</v>
+        <v>-0.2048382808506813</v>
       </c>
       <c r="C93">
-        <v>-0.1935351649752844</v>
+        <v>-0.3353015038905758</v>
       </c>
       <c r="D93">
-        <v>-0.3061863635391864</v>
+        <v>-0.01895344272668656</v>
       </c>
       <c r="E93">
-        <v>-0.1895312090769762</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.0101017685454175</v>
+      </c>
+      <c r="F93">
+        <v>-0.02095592547668998</v>
+      </c>
+      <c r="G93">
+        <v>0.001975095890228479</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01741529116736432</v>
+        <v>-0.2826991367042836</v>
       </c>
       <c r="C94">
-        <v>-0.3049816963566537</v>
+        <v>0.1522432016070326</v>
       </c>
       <c r="D94">
-        <v>0.06101198306842438</v>
+        <v>-0.01413798037812109</v>
       </c>
       <c r="E94">
-        <v>0.1640481149729565</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1071541849061376</v>
+      </c>
+      <c r="F94">
+        <v>-0.3888019978583552</v>
+      </c>
+      <c r="G94">
+        <v>-0.1305840999126261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006834258726482007</v>
+        <v>-0.08456264209279847</v>
       </c>
       <c r="C95">
-        <v>-0.07502247755595809</v>
+        <v>0.07355133785603948</v>
       </c>
       <c r="D95">
-        <v>-0.05105191555395273</v>
+        <v>-0.008144678506768747</v>
       </c>
       <c r="E95">
-        <v>0.07142085171627945</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07674945968963351</v>
+      </c>
+      <c r="F95">
+        <v>0.1564657405961462</v>
+      </c>
+      <c r="G95">
+        <v>-0.07253936907685962</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.001628723237406297</v>
+        <v>-0.2121628844514217</v>
       </c>
       <c r="C98">
-        <v>-0.194965063119401</v>
+        <v>0.04253205246804203</v>
       </c>
       <c r="D98">
-        <v>-0.02847850999114743</v>
+        <v>-0.0173559163286496</v>
       </c>
       <c r="E98">
-        <v>0.06433656362569866</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06787060235353869</v>
+      </c>
+      <c r="F98">
+        <v>0.2415206834221492</v>
+      </c>
+      <c r="G98">
+        <v>-0.03590816402928283</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007792877280187441</v>
+        <v>-0.01384031432178154</v>
       </c>
       <c r="C101">
-        <v>-0.02449239732358881</v>
+        <v>0.01977782434494649</v>
       </c>
       <c r="D101">
-        <v>0.004260409039925845</v>
+        <v>0.008363964157784712</v>
       </c>
       <c r="E101">
-        <v>0.003447584694538571</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03628850187488974</v>
+      </c>
+      <c r="F101">
+        <v>-0.02504929317075088</v>
+      </c>
+      <c r="G101">
+        <v>0.03892746353217708</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01184643092166984</v>
+        <v>-0.1270397336808943</v>
       </c>
       <c r="C102">
-        <v>-0.1491137233238882</v>
+        <v>0.08006844909968372</v>
       </c>
       <c r="D102">
-        <v>0.0483664071224422</v>
+        <v>-0.0006102822958215606</v>
       </c>
       <c r="E102">
-        <v>0.07365671450379159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04362488623212178</v>
+      </c>
+      <c r="F102">
+        <v>-0.06402501169926147</v>
+      </c>
+      <c r="G102">
+        <v>-0.0122624867647494</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.00191768977863584</v>
+        <v>-0.005298267229432272</v>
       </c>
       <c r="C103">
-        <v>-0.02797570410794852</v>
+        <v>0.005916358890893845</v>
       </c>
       <c r="D103">
-        <v>0.02282801924436051</v>
+        <v>0.000522842674293732</v>
       </c>
       <c r="E103">
-        <v>0.00740130125172387</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0006148631771406907</v>
+      </c>
+      <c r="F103">
+        <v>-0.008398020920734911</v>
+      </c>
+      <c r="G103">
+        <v>0.01504963959758578</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9875841700103519</v>
+        <v>-0.03912428512861874</v>
       </c>
       <c r="C104">
-        <v>0.07491519095557528</v>
+        <v>-0.04616030284659811</v>
       </c>
       <c r="D104">
-        <v>0.03650123676664373</v>
+        <v>0.9861154627554655</v>
       </c>
       <c r="E104">
-        <v>0.01352798709114416</v>
+        <v>-0.04337726597362725</v>
+      </c>
+      <c r="F104">
+        <v>-0.03886393688515438</v>
+      </c>
+      <c r="G104">
+        <v>-0.003009562512273435</v>
       </c>
     </row>
   </sheetData>
